--- a/Tables/table(20151023).xlsx
+++ b/Tables/table(20151023).xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="0" windowWidth="33020" windowHeight="22480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="BAYES" sheetId="1" r:id="rId1"/>
     <sheet name="GLM" sheetId="2" r:id="rId2"/>
+    <sheet name="T-test (0.05)" sheetId="3" r:id="rId3"/>
+    <sheet name="T-test(0.1)" sheetId="5" r:id="rId4"/>
+    <sheet name="T-test (dirty)" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="377">
   <si>
     <t>M1NONP</t>
   </si>
@@ -1001,13 +1004,163 @@
   </si>
   <si>
     <t>Effect size</t>
+  </si>
+  <si>
+    <t>pvalue</t>
+  </si>
+  <si>
+    <t>Gm10093</t>
+  </si>
+  <si>
+    <t>Gm10182</t>
+  </si>
+  <si>
+    <t>Gm10282</t>
+  </si>
+  <si>
+    <t>Gm13989</t>
+  </si>
+  <si>
+    <t>Gm3376</t>
+  </si>
+  <si>
+    <t>Actr10</t>
+  </si>
+  <si>
+    <t>Gm22058</t>
+  </si>
+  <si>
+    <t>Gm22442</t>
+  </si>
+  <si>
+    <t>Hbegf</t>
+  </si>
+  <si>
+    <t>mt-Rnr1</t>
+  </si>
+  <si>
+    <t>Rnu1a1</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>Gm17132</t>
+  </si>
+  <si>
+    <t>Erdr1</t>
+  </si>
+  <si>
+    <t>Gm26880</t>
+  </si>
+  <si>
+    <t>Gm21704</t>
+  </si>
+  <si>
+    <t>Hspa4l</t>
+  </si>
+  <si>
+    <t>Gstt2</t>
+  </si>
+  <si>
+    <t>Gm26905</t>
+  </si>
+  <si>
+    <t>Ptpla</t>
+  </si>
+  <si>
+    <t>Gml</t>
+  </si>
+  <si>
+    <t>Stip1</t>
+  </si>
+  <si>
+    <t>Hirip3</t>
+  </si>
+  <si>
+    <t>Pfdn6</t>
+  </si>
+  <si>
+    <t>Hemt1</t>
+  </si>
+  <si>
+    <t>Slc25a38</t>
+  </si>
+  <si>
+    <t>Zc3h7a</t>
+  </si>
+  <si>
+    <t>Mdc1</t>
+  </si>
+  <si>
+    <t>Ahsa1</t>
+  </si>
+  <si>
+    <t>Cox6b2</t>
+  </si>
+  <si>
+    <t>Atp11b</t>
+  </si>
+  <si>
+    <t>Setx</t>
+  </si>
+  <si>
+    <t>Pabpc1</t>
+  </si>
+  <si>
+    <t>Mkks</t>
+  </si>
+  <si>
+    <t>Cd209f</t>
+  </si>
+  <si>
+    <t>1700029J07Rik</t>
+  </si>
+  <si>
+    <t>Rmrp</t>
+  </si>
+  <si>
+    <t>Dppa5a</t>
+  </si>
+  <si>
+    <t>Pmaip1</t>
+  </si>
+  <si>
+    <t>Copz2</t>
+  </si>
+  <si>
+    <t>C1qb</t>
+  </si>
+  <si>
+    <t>Dnajc12</t>
+  </si>
+  <si>
+    <t>Nme7</t>
+  </si>
+  <si>
+    <t>mt-Nd6</t>
+  </si>
+  <si>
+    <t>Tbrg4</t>
+  </si>
+  <si>
+    <t>Gm17300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1032,8 +1185,24 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,6 +1227,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1068,17 +1249,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1411,10 +1614,13 @@
   <dimension ref="A1:L246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
@@ -10776,19 +10982,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -13078,6 +13284,4308 @@
       </c>
       <c r="K66">
         <v>4.9748132696144289E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3">
+        <v>3.0948633619748121E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.86592631534939624</v>
+      </c>
+      <c r="F3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3">
+        <v>1.6302169530002675E-2</v>
+      </c>
+      <c r="H3">
+        <v>-0.68707508908484904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4">
+        <v>4.706685903409895E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.1172110043961023</v>
+      </c>
+      <c r="F4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4">
+        <v>3.1745799927801341E-2</v>
+      </c>
+      <c r="H4">
+        <v>-0.46621081981095364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5">
+        <v>8.2287070615111053E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.4763860081235864</v>
+      </c>
+      <c r="F5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5">
+        <v>4.5192708111629828E-2</v>
+      </c>
+      <c r="H5">
+        <v>-0.43570633514239221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>4.9253358200762591E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.88928856874840079</v>
+      </c>
+      <c r="F6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6">
+        <v>3.5727844465260214E-2</v>
+      </c>
+      <c r="H6">
+        <v>-2.0381076443982904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7">
+        <v>4.7273096354314321E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.61126394764741843</v>
+      </c>
+      <c r="F7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G7">
+        <v>9.8626729855733411E-3</v>
+      </c>
+      <c r="H7">
+        <v>-0.70600900821077028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8">
+        <v>6.1500543937077485E-5</v>
+      </c>
+      <c r="D8">
+        <v>2.6574481374919232</v>
+      </c>
+      <c r="F8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G8">
+        <v>3.123687114633156E-4</v>
+      </c>
+      <c r="H8">
+        <v>-8.573856419876714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>4.4340060324662957E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.5475882902156082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10">
+        <v>2.837942550985352E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.1060406546246957</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3">
+        <v>6.1500543937077485E-5</v>
+      </c>
+      <c r="D3">
+        <v>2.6574481374919232</v>
+      </c>
+      <c r="F3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3">
+        <v>3.123687114633156E-4</v>
+      </c>
+      <c r="H3">
+        <v>-8.573856419876714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4">
+        <v>4.706685903409895E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.1172110043961023</v>
+      </c>
+      <c r="F4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G4">
+        <v>9.8626729855733411E-3</v>
+      </c>
+      <c r="H4">
+        <v>-0.70600900821077028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5">
+        <v>8.2287070615111053E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.4763860081235864</v>
+      </c>
+      <c r="F5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5">
+        <v>1.6302169530002675E-2</v>
+      </c>
+      <c r="H5">
+        <v>-0.68707508908484904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6">
+        <v>2.837942550985352E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.1060406546246957</v>
+      </c>
+      <c r="F6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G6">
+        <v>3.1745799927801341E-2</v>
+      </c>
+      <c r="H6">
+        <v>-0.46621081981095364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7">
+        <v>3.0948633619748121E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.86592631534939624</v>
+      </c>
+      <c r="F7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G7">
+        <v>3.5727844465260214E-2</v>
+      </c>
+      <c r="H7">
+        <v>-2.0381076443982904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>4.4340060324662957E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.5475882902156082</v>
+      </c>
+      <c r="F8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8">
+        <v>4.5192708111629828E-2</v>
+      </c>
+      <c r="H8">
+        <v>-0.43570633514239221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9">
+        <v>4.7273096354314321E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.61126394764741843</v>
+      </c>
+      <c r="F9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G9">
+        <v>5.4527992451483723E-2</v>
+      </c>
+      <c r="H9">
+        <v>-1.2286226603829069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>4.9253358200762591E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.88928856874840079</v>
+      </c>
+      <c r="F10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10">
+        <v>6.8746749856911274E-2</v>
+      </c>
+      <c r="H10">
+        <v>-0.35427808509558067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11">
+        <v>5.64192398319057E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.94471706238751985</v>
+      </c>
+      <c r="F11" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11">
+        <v>7.596380285995212E-2</v>
+      </c>
+      <c r="H11">
+        <v>-0.14228562498946981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12">
+        <v>5.6462894774193889E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.58145961387523071</v>
+      </c>
+      <c r="F12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G12">
+        <v>9.547157651599554E-2</v>
+      </c>
+      <c r="H12">
+        <v>-0.5074238350142074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13">
+        <v>6.2104376420273666E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.58077608596299513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14">
+        <v>6.3022396504704981E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.30802049624835826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15">
+        <v>7.1113820526261529E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.11489303406911019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16">
+        <v>7.9423805345811616E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.33301004291246272</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17">
+        <v>8.5645269917432459E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.61928996132349023</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18">
+        <v>8.8462893090403324E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.86385212662994204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19">
+        <v>9.1982197514838784E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.64165153935248653</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20">
+        <v>9.471177488297744E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.31834977036932877</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>9.6601959906372034E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.106435229579539</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C22">
+        <v>9.9788376440046955E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.51144628697472538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2">
+        <v>25.47</v>
+      </c>
+      <c r="C2">
+        <v>25.98</v>
+      </c>
+      <c r="D2">
+        <v>15.08</v>
+      </c>
+      <c r="E2">
+        <v>5.41</v>
+      </c>
+      <c r="F2">
+        <v>1.25</v>
+      </c>
+      <c r="G2">
+        <v>3.62</v>
+      </c>
+      <c r="H2">
+        <v>3.4266666666666667</v>
+      </c>
+      <c r="I2">
+        <v>22.176666666666666</v>
+      </c>
+      <c r="J2">
+        <v>2.3883804428451629</v>
+      </c>
+      <c r="K2">
+        <v>-7.0707354078216396</v>
+      </c>
+      <c r="L2">
+        <v>-18.750000000000004</v>
+      </c>
+      <c r="M2">
+        <v>4.0097999810825629E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>70.55</v>
+      </c>
+      <c r="C3">
+        <v>70.27</v>
+      </c>
+      <c r="D3">
+        <v>66.66</v>
+      </c>
+      <c r="E3">
+        <v>25.25</v>
+      </c>
+      <c r="F3">
+        <v>11.14</v>
+      </c>
+      <c r="G3">
+        <v>42.34</v>
+      </c>
+      <c r="H3">
+        <v>26.243333333333336</v>
+      </c>
+      <c r="I3">
+        <v>69.16</v>
+      </c>
+      <c r="J3">
+        <v>1.3647455139899956</v>
+      </c>
+      <c r="K3">
+        <v>-6.6645402385321448</v>
+      </c>
+      <c r="L3">
+        <v>-42.916666666666664</v>
+      </c>
+      <c r="M3">
+        <v>5.5207842024651609E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4">
+        <v>548.68999999999994</v>
+      </c>
+      <c r="C4">
+        <v>514.97</v>
+      </c>
+      <c r="D4">
+        <v>491.65</v>
+      </c>
+      <c r="E4">
+        <v>376.14</v>
+      </c>
+      <c r="F4">
+        <v>181.12</v>
+      </c>
+      <c r="G4">
+        <v>202.97</v>
+      </c>
+      <c r="H4">
+        <v>253.41</v>
+      </c>
+      <c r="I4">
+        <v>518.43666666666661</v>
+      </c>
+      <c r="J4">
+        <v>1.0297924772142721</v>
+      </c>
+      <c r="K4">
+        <v>-5.8680889029008023</v>
+      </c>
+      <c r="L4">
+        <v>-265.02666666666664</v>
+      </c>
+      <c r="M4">
+        <v>1.0835164658124048E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5">
+        <v>49.02</v>
+      </c>
+      <c r="C5">
+        <v>45.660000000000004</v>
+      </c>
+      <c r="D5">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E5">
+        <v>30.35</v>
+      </c>
+      <c r="F5">
+        <v>13.8</v>
+      </c>
+      <c r="G5">
+        <v>23.900000000000002</v>
+      </c>
+      <c r="H5">
+        <v>22.683333333333334</v>
+      </c>
+      <c r="I5">
+        <v>42.993333333333332</v>
+      </c>
+      <c r="J5">
+        <v>0.89341276828379179</v>
+      </c>
+      <c r="K5">
+        <v>-4.3786609982972422</v>
+      </c>
+      <c r="L5">
+        <v>-20.309999999999995</v>
+      </c>
+      <c r="M5">
+        <v>4.6749713673639821E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6">
+        <v>15.6</v>
+      </c>
+      <c r="C6">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="D6">
+        <v>20.87</v>
+      </c>
+      <c r="E6">
+        <v>13.11</v>
+      </c>
+      <c r="F6">
+        <v>9.15</v>
+      </c>
+      <c r="G6">
+        <v>14.04</v>
+      </c>
+      <c r="H6">
+        <v>12.1</v>
+      </c>
+      <c r="I6">
+        <v>18.873333333333335</v>
+      </c>
+      <c r="J6">
+        <v>0.60126706284519971</v>
+      </c>
+      <c r="K6">
+        <v>-4.2969242804979206</v>
+      </c>
+      <c r="L6">
+        <v>-6.7733333333333352</v>
+      </c>
+      <c r="M6">
+        <v>5.1099644246322485E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7">
+        <v>54.58</v>
+      </c>
+      <c r="C7">
+        <v>55.54</v>
+      </c>
+      <c r="D7">
+        <v>43.4</v>
+      </c>
+      <c r="E7">
+        <v>41.85</v>
+      </c>
+      <c r="F7">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="G7">
+        <v>42.5</v>
+      </c>
+      <c r="H7">
+        <v>40.933333333333337</v>
+      </c>
+      <c r="I7">
+        <v>51.173333333333332</v>
+      </c>
+      <c r="J7">
+        <v>0.31521509313414242</v>
+      </c>
+      <c r="K7">
+        <v>-3.5373575114493905</v>
+      </c>
+      <c r="L7">
+        <v>-10.239999999999995</v>
+      </c>
+      <c r="M7">
+        <v>1.2258033449329716E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>50.49</v>
+      </c>
+      <c r="C8">
+        <v>55.42</v>
+      </c>
+      <c r="D8">
+        <v>55.08</v>
+      </c>
+      <c r="E8">
+        <v>35.58</v>
+      </c>
+      <c r="F8">
+        <v>15.94</v>
+      </c>
+      <c r="G8">
+        <v>45.98</v>
+      </c>
+      <c r="H8">
+        <v>32.5</v>
+      </c>
+      <c r="I8">
+        <v>53.663333333333334</v>
+      </c>
+      <c r="J8">
+        <v>0.70641234154724764</v>
+      </c>
+      <c r="K8">
+        <v>-3.344150810163395</v>
+      </c>
+      <c r="L8">
+        <v>-21.163333333333334</v>
+      </c>
+      <c r="M8">
+        <v>1.5531560378723651E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>20.76</v>
+      </c>
+      <c r="C9">
+        <v>20.09</v>
+      </c>
+      <c r="D9">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="E9">
+        <v>15.04</v>
+      </c>
+      <c r="F9">
+        <v>7.5</v>
+      </c>
+      <c r="G9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="H9">
+        <v>13.266666666666667</v>
+      </c>
+      <c r="I9">
+        <v>20.18</v>
+      </c>
+      <c r="J9">
+        <v>0.57005429342498282</v>
+      </c>
+      <c r="K9">
+        <v>-3.2917379835523652</v>
+      </c>
+      <c r="L9">
+        <v>-6.9133333333333322</v>
+      </c>
+      <c r="M9">
+        <v>1.6577815208651373E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10">
+        <v>38.86</v>
+      </c>
+      <c r="C10">
+        <v>37.15</v>
+      </c>
+      <c r="D10">
+        <v>31.87</v>
+      </c>
+      <c r="E10">
+        <v>32.6</v>
+      </c>
+      <c r="F10">
+        <v>14.15</v>
+      </c>
+      <c r="G10">
+        <v>23.11</v>
+      </c>
+      <c r="H10">
+        <v>23.286666666666669</v>
+      </c>
+      <c r="I10">
+        <v>35.96</v>
+      </c>
+      <c r="J10">
+        <v>0.60580026239443185</v>
+      </c>
+      <c r="K10">
+        <v>-3.1294385836020124</v>
+      </c>
+      <c r="L10">
+        <v>-12.673333333333328</v>
+      </c>
+      <c r="M10">
+        <v>2.0339131640750303E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>21.57</v>
+      </c>
+      <c r="C11">
+        <v>18.93</v>
+      </c>
+      <c r="D11">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="E11">
+        <v>9.26</v>
+      </c>
+      <c r="F11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G11">
+        <v>18.47</v>
+      </c>
+      <c r="H11">
+        <v>10.943333333333333</v>
+      </c>
+      <c r="I11">
+        <v>19.723333333333333</v>
+      </c>
+      <c r="J11">
+        <v>0.795050535326709</v>
+      </c>
+      <c r="K11">
+        <v>-3.060237771503346</v>
+      </c>
+      <c r="L11">
+        <v>-8.7799999999999994</v>
+      </c>
+      <c r="M11">
+        <v>2.221822996807472E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>23.54</v>
+      </c>
+      <c r="C12">
+        <v>24.47</v>
+      </c>
+      <c r="D12">
+        <v>23.95</v>
+      </c>
+      <c r="E12">
+        <v>19.080000000000002</v>
+      </c>
+      <c r="F12">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="G12">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="H12">
+        <v>15.910000000000002</v>
+      </c>
+      <c r="I12">
+        <v>23.986666666666665</v>
+      </c>
+      <c r="J12">
+        <v>0.56328179252804755</v>
+      </c>
+      <c r="K12">
+        <v>-3.0471792686382755</v>
+      </c>
+      <c r="L12">
+        <v>-8.0766666666666627</v>
+      </c>
+      <c r="M12">
+        <v>2.259358268858886E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>20.39</v>
+      </c>
+      <c r="C13">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="D13">
+        <v>42.83</v>
+      </c>
+      <c r="E13">
+        <v>8.69</v>
+      </c>
+      <c r="F13">
+        <v>12.09</v>
+      </c>
+      <c r="G13">
+        <v>24.45</v>
+      </c>
+      <c r="H13">
+        <v>15.076666666666666</v>
+      </c>
+      <c r="I13">
+        <v>32.196666666666665</v>
+      </c>
+      <c r="J13">
+        <v>1.0460700760218424</v>
+      </c>
+      <c r="K13">
+        <v>-2.9976291753874391</v>
+      </c>
+      <c r="L13">
+        <v>-17.119999999999997</v>
+      </c>
+      <c r="M13">
+        <v>2.4081776119169639E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="C14">
+        <v>32.65</v>
+      </c>
+      <c r="D14">
+        <v>20.99</v>
+      </c>
+      <c r="E14">
+        <v>25.27</v>
+      </c>
+      <c r="F14">
+        <v>11.56</v>
+      </c>
+      <c r="G14">
+        <v>15.3</v>
+      </c>
+      <c r="H14">
+        <v>17.376666666666665</v>
+      </c>
+      <c r="I14">
+        <v>29.336666666666666</v>
+      </c>
+      <c r="J14">
+        <v>0.72318747308865472</v>
+      </c>
+      <c r="K14">
+        <v>-2.8836001919076617</v>
+      </c>
+      <c r="L14">
+        <v>-11.96</v>
+      </c>
+      <c r="M14">
+        <v>2.7926033953968737E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15">
+        <v>19.64</v>
+      </c>
+      <c r="C15">
+        <v>22.41</v>
+      </c>
+      <c r="D15">
+        <v>19.3</v>
+      </c>
+      <c r="E15">
+        <v>20.12</v>
+      </c>
+      <c r="F15">
+        <v>10.42</v>
+      </c>
+      <c r="G15">
+        <v>10.92</v>
+      </c>
+      <c r="H15">
+        <v>13.82</v>
+      </c>
+      <c r="I15">
+        <v>20.45</v>
+      </c>
+      <c r="J15">
+        <v>0.53343220008107428</v>
+      </c>
+      <c r="K15">
+        <v>-2.838240238129115</v>
+      </c>
+      <c r="L15">
+        <v>-6.629999999999999</v>
+      </c>
+      <c r="M15">
+        <v>2.963532688946869E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16">
+        <v>35.57</v>
+      </c>
+      <c r="C16">
+        <v>33.32</v>
+      </c>
+      <c r="D16">
+        <v>28.76</v>
+      </c>
+      <c r="E16">
+        <v>24.43</v>
+      </c>
+      <c r="F16">
+        <v>11.3</v>
+      </c>
+      <c r="G16">
+        <v>29.16</v>
+      </c>
+      <c r="H16">
+        <v>21.63</v>
+      </c>
+      <c r="I16">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="J16">
+        <v>0.56807618182065411</v>
+      </c>
+      <c r="K16">
+        <v>-2.7066487463082791</v>
+      </c>
+      <c r="L16">
+        <v>-10.919999999999995</v>
+      </c>
+      <c r="M16">
+        <v>3.5262816554175784E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17">
+        <v>40.24</v>
+      </c>
+      <c r="C17">
+        <v>36.229999999999997</v>
+      </c>
+      <c r="D17">
+        <v>34.24</v>
+      </c>
+      <c r="E17">
+        <v>34.17</v>
+      </c>
+      <c r="F17">
+        <v>14.83</v>
+      </c>
+      <c r="G17">
+        <v>29.39</v>
+      </c>
+      <c r="H17">
+        <v>26.130000000000003</v>
+      </c>
+      <c r="I17">
+        <v>36.903333333333336</v>
+      </c>
+      <c r="J17">
+        <v>0.4824356813044286</v>
+      </c>
+      <c r="K17">
+        <v>-2.50678662086287</v>
+      </c>
+      <c r="L17">
+        <v>-10.773333333333337</v>
+      </c>
+      <c r="M17">
+        <v>4.610309542319084E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>210.82</v>
+      </c>
+      <c r="C18">
+        <v>210.73</v>
+      </c>
+      <c r="D18">
+        <v>172.82</v>
+      </c>
+      <c r="E18">
+        <v>22.66</v>
+      </c>
+      <c r="F18">
+        <v>180.6</v>
+      </c>
+      <c r="G18">
+        <v>139.49</v>
+      </c>
+      <c r="H18">
+        <v>114.25</v>
+      </c>
+      <c r="I18">
+        <v>198.12333333333333</v>
+      </c>
+      <c r="J18">
+        <v>0.78889553575737725</v>
+      </c>
+      <c r="K18">
+        <v>-2.4221819403397888</v>
+      </c>
+      <c r="L18">
+        <v>-83.873333333333306</v>
+      </c>
+      <c r="M18">
+        <v>5.1709379496650637E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>64.45</v>
+      </c>
+      <c r="C19">
+        <v>60.28</v>
+      </c>
+      <c r="D19">
+        <v>48.49</v>
+      </c>
+      <c r="E19">
+        <v>45.96</v>
+      </c>
+      <c r="F19">
+        <v>21.07</v>
+      </c>
+      <c r="G19">
+        <v>52.050000000000004</v>
+      </c>
+      <c r="H19">
+        <v>39.693333333333335</v>
+      </c>
+      <c r="I19">
+        <v>57.74</v>
+      </c>
+      <c r="J19">
+        <v>0.52955080421147738</v>
+      </c>
+      <c r="K19">
+        <v>-2.4047529810367703</v>
+      </c>
+      <c r="L19">
+        <v>-18.046666666666667</v>
+      </c>
+      <c r="M19">
+        <v>5.2950906299560126E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20">
+        <v>21.06</v>
+      </c>
+      <c r="C20">
+        <v>20.07</v>
+      </c>
+      <c r="D20">
+        <v>21.71</v>
+      </c>
+      <c r="E20">
+        <v>11.33</v>
+      </c>
+      <c r="F20">
+        <v>5.04</v>
+      </c>
+      <c r="G20">
+        <v>21.99</v>
+      </c>
+      <c r="H20">
+        <v>12.786666666666665</v>
+      </c>
+      <c r="I20">
+        <v>20.946666666666665</v>
+      </c>
+      <c r="J20">
+        <v>0.67072815010669107</v>
+      </c>
+      <c r="K20">
+        <v>-2.3219850277893839</v>
+      </c>
+      <c r="L20">
+        <v>-8.16</v>
+      </c>
+      <c r="M20">
+        <v>5.9287616297927219E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21">
+        <v>49.22</v>
+      </c>
+      <c r="C21">
+        <v>50.98</v>
+      </c>
+      <c r="D21">
+        <v>41.34</v>
+      </c>
+      <c r="E21">
+        <v>45.45</v>
+      </c>
+      <c r="F21">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="G21">
+        <v>40.4</v>
+      </c>
+      <c r="H21">
+        <v>40.133333333333333</v>
+      </c>
+      <c r="I21">
+        <v>47.18</v>
+      </c>
+      <c r="J21">
+        <v>0.22812640492284597</v>
+      </c>
+      <c r="K21">
+        <v>-2.3043126931480029</v>
+      </c>
+      <c r="L21">
+        <v>-7.0466666666666669</v>
+      </c>
+      <c r="M21">
+        <v>6.0740352179503639E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22">
+        <v>20.669999999999998</v>
+      </c>
+      <c r="C22">
+        <v>20.53</v>
+      </c>
+      <c r="D22">
+        <v>18.79</v>
+      </c>
+      <c r="E22">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F22">
+        <v>7.88</v>
+      </c>
+      <c r="G22">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H22">
+        <v>14.543333333333333</v>
+      </c>
+      <c r="I22">
+        <v>19.996666666666666</v>
+      </c>
+      <c r="J22">
+        <v>0.4338643815454426</v>
+      </c>
+      <c r="K22">
+        <v>-2.2775808851335708</v>
+      </c>
+      <c r="L22">
+        <v>-5.4533333333333331</v>
+      </c>
+      <c r="M22">
+        <v>6.3008578806836871E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>207.12</v>
+      </c>
+      <c r="C23">
+        <v>199.03</v>
+      </c>
+      <c r="D23">
+        <v>201.63</v>
+      </c>
+      <c r="E23">
+        <v>23.66</v>
+      </c>
+      <c r="F23">
+        <v>170.06</v>
+      </c>
+      <c r="G23">
+        <v>176.97</v>
+      </c>
+      <c r="H23">
+        <v>123.56333333333333</v>
+      </c>
+      <c r="I23">
+        <v>202.59333333333333</v>
+      </c>
+      <c r="J23">
+        <v>0.70881086433680451</v>
+      </c>
+      <c r="K23">
+        <v>-2.2331479819588491</v>
+      </c>
+      <c r="L23">
+        <v>-79.03</v>
+      </c>
+      <c r="M23">
+        <v>6.6975253156005263E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>21.189999999999998</v>
+      </c>
+      <c r="C24">
+        <v>19.59</v>
+      </c>
+      <c r="D24">
+        <v>17.39</v>
+      </c>
+      <c r="E24">
+        <v>15.52</v>
+      </c>
+      <c r="F24">
+        <v>7.0299999999999994</v>
+      </c>
+      <c r="G24">
+        <v>18.650000000000002</v>
+      </c>
+      <c r="H24">
+        <v>13.733333333333334</v>
+      </c>
+      <c r="I24">
+        <v>19.39</v>
+      </c>
+      <c r="J24">
+        <v>0.46877790645895878</v>
+      </c>
+      <c r="K24">
+        <v>-2.1965847788209802</v>
+      </c>
+      <c r="L24">
+        <v>-5.6566666666666681</v>
+      </c>
+      <c r="M24">
+        <v>7.0432803442109157E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>54.52</v>
+      </c>
+      <c r="D25">
+        <v>50.300000000000004</v>
+      </c>
+      <c r="E25">
+        <v>4.96</v>
+      </c>
+      <c r="F25">
+        <v>43.6</v>
+      </c>
+      <c r="G25">
+        <v>49.84</v>
+      </c>
+      <c r="H25">
+        <v>32.800000000000004</v>
+      </c>
+      <c r="I25">
+        <v>54.940000000000005</v>
+      </c>
+      <c r="J25">
+        <v>0.72685700730664582</v>
+      </c>
+      <c r="K25">
+        <v>-2.1873875353664403</v>
+      </c>
+      <c r="L25">
+        <v>-22.14</v>
+      </c>
+      <c r="M25">
+        <v>7.1331176364781756E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B26">
+        <v>25.28</v>
+      </c>
+      <c r="C26">
+        <v>21.91</v>
+      </c>
+      <c r="D26">
+        <v>22.11</v>
+      </c>
+      <c r="E26">
+        <v>18.27</v>
+      </c>
+      <c r="F26">
+        <v>7.6099999999999994</v>
+      </c>
+      <c r="G26">
+        <v>22.400000000000002</v>
+      </c>
+      <c r="H26">
+        <v>16.093333333333334</v>
+      </c>
+      <c r="I26">
+        <v>23.1</v>
+      </c>
+      <c r="J26">
+        <v>0.49559938521973912</v>
+      </c>
+      <c r="K26">
+        <v>-2.1829540545066708</v>
+      </c>
+      <c r="L26">
+        <v>-7.0066666666666642</v>
+      </c>
+      <c r="M26">
+        <v>7.1768440754005083E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>33.019999999999996</v>
+      </c>
+      <c r="C27">
+        <v>35.89</v>
+      </c>
+      <c r="D27">
+        <v>25.99</v>
+      </c>
+      <c r="E27">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F27">
+        <v>7.8</v>
+      </c>
+      <c r="G27">
+        <v>13.11</v>
+      </c>
+      <c r="H27">
+        <v>18.57</v>
+      </c>
+      <c r="I27">
+        <v>31.633333333333333</v>
+      </c>
+      <c r="J27">
+        <v>0.73770260314309688</v>
+      </c>
+      <c r="K27">
+        <v>-2.1073852263563464</v>
+      </c>
+      <c r="L27">
+        <v>-13.063333333333336</v>
+      </c>
+      <c r="M27">
+        <v>7.9660205447325064E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>41.74</v>
+      </c>
+      <c r="C28">
+        <v>46.78</v>
+      </c>
+      <c r="D28">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>31.34</v>
+      </c>
+      <c r="F28">
+        <v>12.69</v>
+      </c>
+      <c r="G28">
+        <v>44.63</v>
+      </c>
+      <c r="H28">
+        <v>29.553333333333335</v>
+      </c>
+      <c r="I28">
+        <v>43.506666666666668</v>
+      </c>
+      <c r="J28">
+        <v>0.54269166898828658</v>
+      </c>
+      <c r="K28">
+        <v>-2.0976410520147475</v>
+      </c>
+      <c r="L28">
+        <v>-13.953333333333333</v>
+      </c>
+      <c r="M28">
+        <v>8.0740605004558152E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>27.81</v>
+      </c>
+      <c r="C29">
+        <v>25.94</v>
+      </c>
+      <c r="D29">
+        <v>26.54</v>
+      </c>
+      <c r="E29">
+        <v>29.560000000000002</v>
+      </c>
+      <c r="F29">
+        <v>11.24</v>
+      </c>
+      <c r="G29">
+        <v>14.84</v>
+      </c>
+      <c r="H29">
+        <v>18.546666666666667</v>
+      </c>
+      <c r="I29">
+        <v>26.763333333333332</v>
+      </c>
+      <c r="J29">
+        <v>0.50625818904056796</v>
+      </c>
+      <c r="K29">
+        <v>-2.0636276594951664</v>
+      </c>
+      <c r="L29">
+        <v>-8.216666666666665</v>
+      </c>
+      <c r="M29">
+        <v>8.4630470130928323E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30">
+        <v>89.740000000000009</v>
+      </c>
+      <c r="C30">
+        <v>90.789999999999992</v>
+      </c>
+      <c r="D30">
+        <v>93.18</v>
+      </c>
+      <c r="E30">
+        <v>47.46</v>
+      </c>
+      <c r="F30">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="G30">
+        <v>101.89999999999999</v>
+      </c>
+      <c r="H30">
+        <v>55.973333333333329</v>
+      </c>
+      <c r="I30">
+        <v>91.236666666666665</v>
+      </c>
+      <c r="J30">
+        <v>0.69505356019610609</v>
+      </c>
+      <c r="K30">
+        <v>-2.0394138875236769</v>
+      </c>
+      <c r="L30">
+        <v>-35.263333333333335</v>
+      </c>
+      <c r="M30">
+        <v>8.7515398685469453E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>42.63</v>
+      </c>
+      <c r="C31">
+        <v>48.11</v>
+      </c>
+      <c r="D31">
+        <v>44.15</v>
+      </c>
+      <c r="E31">
+        <v>22.95</v>
+      </c>
+      <c r="F31">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="G31">
+        <v>50.26</v>
+      </c>
+      <c r="H31">
+        <v>27.776666666666664</v>
+      </c>
+      <c r="I31">
+        <v>44.963333333333331</v>
+      </c>
+      <c r="J31">
+        <v>0.67558394052462134</v>
+      </c>
+      <c r="K31">
+        <v>-2.0342428145164457</v>
+      </c>
+      <c r="L31">
+        <v>-17.186666666666675</v>
+      </c>
+      <c r="M31">
+        <v>8.814433209945928E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B32">
+        <v>30.65</v>
+      </c>
+      <c r="C32">
+        <v>30.2</v>
+      </c>
+      <c r="D32">
+        <v>32.08</v>
+      </c>
+      <c r="E32">
+        <v>29.34</v>
+      </c>
+      <c r="F32">
+        <v>15.15</v>
+      </c>
+      <c r="G32">
+        <v>28.66</v>
+      </c>
+      <c r="H32">
+        <v>24.383333333333333</v>
+      </c>
+      <c r="I32">
+        <v>30.976666666666667</v>
+      </c>
+      <c r="J32">
+        <v>0.33313802027175043</v>
+      </c>
+      <c r="K32">
+        <v>-2.0028893280064981</v>
+      </c>
+      <c r="L32">
+        <v>-6.5933333333333302</v>
+      </c>
+      <c r="M32">
+        <v>9.2057016292623292E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33">
+        <v>34.160000000000004</v>
+      </c>
+      <c r="C33">
+        <v>35.449999999999996</v>
+      </c>
+      <c r="D33">
+        <v>34.81</v>
+      </c>
+      <c r="E33">
+        <v>34.68</v>
+      </c>
+      <c r="F33">
+        <v>13.53</v>
+      </c>
+      <c r="G33">
+        <v>29.34</v>
+      </c>
+      <c r="H33">
+        <v>25.85</v>
+      </c>
+      <c r="I33">
+        <v>34.806666666666665</v>
+      </c>
+      <c r="J33">
+        <v>0.41530613256160187</v>
+      </c>
+      <c r="K33">
+        <v>-1.9913397796555528</v>
+      </c>
+      <c r="L33">
+        <v>-8.9566666666666634</v>
+      </c>
+      <c r="M33">
+        <v>9.3542194421520633E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>489.06</v>
+      </c>
+      <c r="C34">
+        <v>447.25</v>
+      </c>
+      <c r="D34">
+        <v>455.4</v>
+      </c>
+      <c r="E34">
+        <v>56.32</v>
+      </c>
+      <c r="F34">
+        <v>422.56</v>
+      </c>
+      <c r="G34">
+        <v>410.29</v>
+      </c>
+      <c r="H34">
+        <v>296.39</v>
+      </c>
+      <c r="I34">
+        <v>463.90333333333331</v>
+      </c>
+      <c r="J34">
+        <v>0.64457463362645306</v>
+      </c>
+      <c r="K34">
+        <v>-1.9616235799673201</v>
+      </c>
+      <c r="L34">
+        <v>-167.51333333333332</v>
+      </c>
+      <c r="M34">
+        <v>9.7475514715340841E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35">
+        <v>27.240000000000002</v>
+      </c>
+      <c r="C35">
+        <v>28.709999999999997</v>
+      </c>
+      <c r="D35">
+        <v>26.21</v>
+      </c>
+      <c r="E35">
+        <v>24.240000000000002</v>
+      </c>
+      <c r="F35">
+        <v>11.389999999999999</v>
+      </c>
+      <c r="G35">
+        <v>26.68</v>
+      </c>
+      <c r="H35">
+        <v>20.77</v>
+      </c>
+      <c r="I35">
+        <v>27.386666666666667</v>
+      </c>
+      <c r="J35">
+        <v>0.38287204154293164</v>
+      </c>
+      <c r="K35">
+        <v>-1.9503666787538962</v>
+      </c>
+      <c r="L35">
+        <v>-6.6166666666666671</v>
+      </c>
+      <c r="M35">
+        <v>9.9008620625381266E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36">
+        <v>20.419999999999998</v>
+      </c>
+      <c r="C36">
+        <v>20.95</v>
+      </c>
+      <c r="D36">
+        <v>19.82</v>
+      </c>
+      <c r="E36">
+        <v>19.47</v>
+      </c>
+      <c r="F36">
+        <v>9.16</v>
+      </c>
+      <c r="G36">
+        <v>18.78</v>
+      </c>
+      <c r="H36">
+        <v>15.803333333333333</v>
+      </c>
+      <c r="I36">
+        <v>20.396666666666665</v>
+      </c>
+      <c r="J36">
+        <v>0.34863860664329405</v>
+      </c>
+      <c r="K36">
+        <v>-1.9428000306435622</v>
+      </c>
+      <c r="L36">
+        <v>-4.5933333333333319</v>
+      </c>
+      <c r="M36">
+        <v>0.1000527330209825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>30.71</v>
+      </c>
+      <c r="C37">
+        <v>31.34</v>
+      </c>
+      <c r="D37">
+        <v>26.21</v>
+      </c>
+      <c r="E37">
+        <v>28.47</v>
+      </c>
+      <c r="F37">
+        <v>12.21</v>
+      </c>
+      <c r="G37">
+        <v>25.810000000000002</v>
+      </c>
+      <c r="H37">
+        <v>22.163333333333334</v>
+      </c>
+      <c r="I37">
+        <v>29.42</v>
+      </c>
+      <c r="J37">
+        <v>0.3931772729030838</v>
+      </c>
+      <c r="K37">
+        <v>-1.9406062549724135</v>
+      </c>
+      <c r="L37">
+        <v>-7.2566666666666642</v>
+      </c>
+      <c r="M37">
+        <v>0.10035751099535013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38">
+        <v>52.44</v>
+      </c>
+      <c r="C38">
+        <v>53.32</v>
+      </c>
+      <c r="D38">
+        <v>45.18</v>
+      </c>
+      <c r="E38">
+        <v>49.06</v>
+      </c>
+      <c r="F38">
+        <v>21.830000000000002</v>
+      </c>
+      <c r="G38">
+        <v>44.28</v>
+      </c>
+      <c r="H38">
+        <v>38.39</v>
+      </c>
+      <c r="I38">
+        <v>50.313333333333333</v>
+      </c>
+      <c r="J38">
+        <v>0.38150432963115577</v>
+      </c>
+      <c r="K38">
+        <v>-1.9201889732703203</v>
+      </c>
+      <c r="L38">
+        <v>-11.923333333333332</v>
+      </c>
+      <c r="M38">
+        <v>0.10323907540587228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>353</v>
+      </c>
+      <c r="B39">
+        <v>26.060000000000002</v>
+      </c>
+      <c r="C39">
+        <v>23.02</v>
+      </c>
+      <c r="D39">
+        <v>19.64</v>
+      </c>
+      <c r="E39">
+        <v>21.73</v>
+      </c>
+      <c r="F39">
+        <v>12.59</v>
+      </c>
+      <c r="G39">
+        <v>20.66</v>
+      </c>
+      <c r="H39">
+        <v>18.326666666666668</v>
+      </c>
+      <c r="I39">
+        <v>22.906666666666666</v>
+      </c>
+      <c r="J39">
+        <v>0.306820154806978</v>
+      </c>
+      <c r="K39">
+        <v>-1.8887075245353144</v>
+      </c>
+      <c r="L39">
+        <v>-4.5799999999999983</v>
+      </c>
+      <c r="M39">
+        <v>0.10784518899160521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>35.65</v>
+      </c>
+      <c r="C40">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D40">
+        <v>39.31</v>
+      </c>
+      <c r="E40">
+        <v>24.62</v>
+      </c>
+      <c r="F40">
+        <v>12.31</v>
+      </c>
+      <c r="G40">
+        <v>41.11</v>
+      </c>
+      <c r="H40">
+        <v>26.013333333333335</v>
+      </c>
+      <c r="I40">
+        <v>37.22</v>
+      </c>
+      <c r="J40">
+        <v>0.50065610489747403</v>
+      </c>
+      <c r="K40">
+        <v>-1.8836829799428436</v>
+      </c>
+      <c r="L40">
+        <v>-11.206666666666667</v>
+      </c>
+      <c r="M40">
+        <v>0.10859908329177066</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>354</v>
+      </c>
+      <c r="B41">
+        <v>43.739999999999995</v>
+      </c>
+      <c r="C41">
+        <v>44.29</v>
+      </c>
+      <c r="D41">
+        <v>45.83</v>
+      </c>
+      <c r="E41">
+        <v>45.24</v>
+      </c>
+      <c r="F41">
+        <v>21.83</v>
+      </c>
+      <c r="G41">
+        <v>38.79</v>
+      </c>
+      <c r="H41">
+        <v>35.286666666666669</v>
+      </c>
+      <c r="I41">
+        <v>44.62</v>
+      </c>
+      <c r="J41">
+        <v>0.33022691130819926</v>
+      </c>
+      <c r="K41">
+        <v>-1.8831489762412197</v>
+      </c>
+      <c r="L41">
+        <v>-9.3333333333333357</v>
+      </c>
+      <c r="M41">
+        <v>0.10867951445548675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>93.43</v>
+      </c>
+      <c r="C42">
+        <v>94.06</v>
+      </c>
+      <c r="D42">
+        <v>92.74</v>
+      </c>
+      <c r="E42">
+        <v>10.8</v>
+      </c>
+      <c r="F42">
+        <v>93.09</v>
+      </c>
+      <c r="G42">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="H42">
+        <v>60.57</v>
+      </c>
+      <c r="I42">
+        <v>93.41</v>
+      </c>
+      <c r="J42">
+        <v>0.61671211080449151</v>
+      </c>
+      <c r="K42">
+        <v>-1.8374783542540583</v>
+      </c>
+      <c r="L42">
+        <v>-32.839999999999996</v>
+      </c>
+      <c r="M42">
+        <v>0.11578205553511157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>355</v>
+      </c>
+      <c r="B43">
+        <v>51.25</v>
+      </c>
+      <c r="C43">
+        <v>48.9</v>
+      </c>
+      <c r="D43">
+        <v>51.54</v>
+      </c>
+      <c r="E43">
+        <v>27.81</v>
+      </c>
+      <c r="F43">
+        <v>12.84</v>
+      </c>
+      <c r="G43">
+        <v>58.92</v>
+      </c>
+      <c r="H43">
+        <v>33.19</v>
+      </c>
+      <c r="I43">
+        <v>50.563333333333333</v>
+      </c>
+      <c r="J43">
+        <v>0.59277110756958518</v>
+      </c>
+      <c r="K43">
+        <v>-1.8069696616085162</v>
+      </c>
+      <c r="L43">
+        <v>-17.373333333333335</v>
+      </c>
+      <c r="M43">
+        <v>0.12078089553701626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44">
+        <v>18.919999999999998</v>
+      </c>
+      <c r="C44">
+        <v>20.47</v>
+      </c>
+      <c r="D44">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E44">
+        <v>17.189999999999998</v>
+      </c>
+      <c r="F44">
+        <v>7.11</v>
+      </c>
+      <c r="G44">
+        <v>18.55</v>
+      </c>
+      <c r="H44">
+        <v>14.283333333333333</v>
+      </c>
+      <c r="I44">
+        <v>18.996666666666666</v>
+      </c>
+      <c r="J44">
+        <v>0.38780029768768731</v>
+      </c>
+      <c r="K44">
+        <v>-1.8004654680049843</v>
+      </c>
+      <c r="L44">
+        <v>-4.7133333333333329</v>
+      </c>
+      <c r="M44">
+        <v>0.12187383358372586</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <v>25.64</v>
+      </c>
+      <c r="C45">
+        <v>25.71</v>
+      </c>
+      <c r="D45">
+        <v>22.99</v>
+      </c>
+      <c r="E45">
+        <v>20.25</v>
+      </c>
+      <c r="F45">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="G45">
+        <v>25.77</v>
+      </c>
+      <c r="H45">
+        <v>18.016666666666666</v>
+      </c>
+      <c r="I45">
+        <v>24.78</v>
+      </c>
+      <c r="J45">
+        <v>0.4389878779067633</v>
+      </c>
+      <c r="K45">
+        <v>-1.7987966826972646</v>
+      </c>
+      <c r="L45">
+        <v>-6.7633333333333354</v>
+      </c>
+      <c r="M45">
+        <v>0.12215581608042099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="C46">
+        <v>34.71</v>
+      </c>
+      <c r="D46">
+        <v>30.38</v>
+      </c>
+      <c r="E46">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="F46">
+        <v>15.58</v>
+      </c>
+      <c r="G46">
+        <v>26.3</v>
+      </c>
+      <c r="H46">
+        <v>25.966666666666669</v>
+      </c>
+      <c r="I46">
+        <v>33.786666666666669</v>
+      </c>
+      <c r="J46">
+        <v>0.36735724150011162</v>
+      </c>
+      <c r="K46">
+        <v>-1.7952584809036338</v>
+      </c>
+      <c r="L46">
+        <v>-7.82</v>
+      </c>
+      <c r="M46">
+        <v>0.12275580880085334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>90.98</v>
+      </c>
+      <c r="C47">
+        <v>79.5</v>
+      </c>
+      <c r="D47">
+        <v>71.36</v>
+      </c>
+      <c r="E47">
+        <v>9.34</v>
+      </c>
+      <c r="F47">
+        <v>72.72</v>
+      </c>
+      <c r="G47">
+        <v>75.37</v>
+      </c>
+      <c r="H47">
+        <v>52.476666666666667</v>
+      </c>
+      <c r="I47">
+        <v>80.61333333333333</v>
+      </c>
+      <c r="J47">
+        <v>0.60989532595137597</v>
+      </c>
+      <c r="K47">
+        <v>-1.7827902807665437</v>
+      </c>
+      <c r="L47">
+        <v>-28.136666666666677</v>
+      </c>
+      <c r="M47">
+        <v>0.1248933055508348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48">
+        <v>24.27</v>
+      </c>
+      <c r="C48">
+        <v>28.7</v>
+      </c>
+      <c r="D48">
+        <v>28.62</v>
+      </c>
+      <c r="E48">
+        <v>29.7</v>
+      </c>
+      <c r="F48">
+        <v>11.48</v>
+      </c>
+      <c r="G48">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="H48">
+        <v>20.306666666666665</v>
+      </c>
+      <c r="I48">
+        <v>27.196666666666665</v>
+      </c>
+      <c r="J48">
+        <v>0.4042197136711474</v>
+      </c>
+      <c r="K48">
+        <v>-1.7823744632896024</v>
+      </c>
+      <c r="L48">
+        <v>-6.8900000000000006</v>
+      </c>
+      <c r="M48">
+        <v>0.12496521829191641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49">
+        <v>42.2</v>
+      </c>
+      <c r="C49">
+        <v>41.11</v>
+      </c>
+      <c r="D49">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="E49">
+        <v>45.46</v>
+      </c>
+      <c r="F49">
+        <v>21.3</v>
+      </c>
+      <c r="G49">
+        <v>25.56</v>
+      </c>
+      <c r="H49">
+        <v>30.773333333333333</v>
+      </c>
+      <c r="I49">
+        <v>40.156666666666666</v>
+      </c>
+      <c r="J49">
+        <v>0.37330969036053485</v>
+      </c>
+      <c r="K49">
+        <v>-1.7457423927851168</v>
+      </c>
+      <c r="L49">
+        <v>-9.3833333333333329</v>
+      </c>
+      <c r="M49">
+        <v>0.13146237747192954</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>356</v>
+      </c>
+      <c r="B50">
+        <v>18.05</v>
+      </c>
+      <c r="C50">
+        <v>19.36</v>
+      </c>
+      <c r="D50">
+        <v>17.59</v>
+      </c>
+      <c r="E50">
+        <v>20.21</v>
+      </c>
+      <c r="F50">
+        <v>8.06</v>
+      </c>
+      <c r="G50">
+        <v>13.59</v>
+      </c>
+      <c r="H50">
+        <v>13.953333333333333</v>
+      </c>
+      <c r="I50">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="J50">
+        <v>0.37062327981602428</v>
+      </c>
+      <c r="K50">
+        <v>-1.7439253298599215</v>
+      </c>
+      <c r="L50">
+        <v>-4.3799999999999972</v>
+      </c>
+      <c r="M50">
+        <v>0.13179311869087423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51">
+        <v>40.72</v>
+      </c>
+      <c r="C51">
+        <v>37.6</v>
+      </c>
+      <c r="D51">
+        <v>30.5</v>
+      </c>
+      <c r="E51">
+        <v>33.47</v>
+      </c>
+      <c r="F51">
+        <v>14.14</v>
+      </c>
+      <c r="G51">
+        <v>34.53</v>
+      </c>
+      <c r="H51">
+        <v>27.38</v>
+      </c>
+      <c r="I51">
+        <v>36.273333333333333</v>
+      </c>
+      <c r="J51">
+        <v>0.39326925484755382</v>
+      </c>
+      <c r="K51">
+        <v>-1.7265829280798024</v>
+      </c>
+      <c r="L51">
+        <v>-8.8933333333333344</v>
+      </c>
+      <c r="M51">
+        <v>0.13499090367151415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52">
+        <v>19.22</v>
+      </c>
+      <c r="C52">
+        <v>18.12</v>
+      </c>
+      <c r="D52">
+        <v>19.07</v>
+      </c>
+      <c r="E52">
+        <v>20.849999999999998</v>
+      </c>
+      <c r="F52">
+        <v>9.01</v>
+      </c>
+      <c r="G52">
+        <v>14.03</v>
+      </c>
+      <c r="H52">
+        <v>14.629999999999999</v>
+      </c>
+      <c r="I52">
+        <v>18.803333333333335</v>
+      </c>
+      <c r="J52">
+        <v>0.34142550947834094</v>
+      </c>
+      <c r="K52">
+        <v>-1.711565600380335</v>
+      </c>
+      <c r="L52">
+        <v>-4.1733333333333356</v>
+      </c>
+      <c r="M52">
+        <v>0.13782091178405734</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>357</v>
+      </c>
+      <c r="B53">
+        <v>36.67</v>
+      </c>
+      <c r="C53">
+        <v>33.25</v>
+      </c>
+      <c r="D53">
+        <v>22.560000000000002</v>
+      </c>
+      <c r="E53">
+        <v>31.12</v>
+      </c>
+      <c r="F53">
+        <v>14.8</v>
+      </c>
+      <c r="G53">
+        <v>23.57</v>
+      </c>
+      <c r="H53">
+        <v>23.163333333333334</v>
+      </c>
+      <c r="I53">
+        <v>30.826666666666668</v>
+      </c>
+      <c r="J53">
+        <v>0.39741657743642733</v>
+      </c>
+      <c r="K53">
+        <v>-1.7072747683542375</v>
+      </c>
+      <c r="L53">
+        <v>-7.663333333333334</v>
+      </c>
+      <c r="M53">
+        <v>0.1386400539537074</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54">
+        <v>43.89</v>
+      </c>
+      <c r="C54">
+        <v>41.56</v>
+      </c>
+      <c r="D54">
+        <v>42.07</v>
+      </c>
+      <c r="E54">
+        <v>42.73</v>
+      </c>
+      <c r="F54">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="G54">
+        <v>38.92</v>
+      </c>
+      <c r="H54">
+        <v>33.296666666666667</v>
+      </c>
+      <c r="I54">
+        <v>42.506666666666668</v>
+      </c>
+      <c r="J54">
+        <v>0.34316812072328684</v>
+      </c>
+      <c r="K54">
+        <v>-1.7045977840369817</v>
+      </c>
+      <c r="L54">
+        <v>-9.2100000000000009</v>
+      </c>
+      <c r="M54">
+        <v>0.13915349643076388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55">
+        <v>94.48</v>
+      </c>
+      <c r="C55">
+        <v>81.72999999999999</v>
+      </c>
+      <c r="D55">
+        <v>63.41</v>
+      </c>
+      <c r="E55">
+        <v>76.17</v>
+      </c>
+      <c r="F55">
+        <v>29.4</v>
+      </c>
+      <c r="G55">
+        <v>71.33</v>
+      </c>
+      <c r="H55">
+        <v>58.966666666666669</v>
+      </c>
+      <c r="I55">
+        <v>79.873333333333335</v>
+      </c>
+      <c r="J55">
+        <v>0.43150329507892859</v>
+      </c>
+      <c r="K55">
+        <v>-1.7019063167999726</v>
+      </c>
+      <c r="L55">
+        <v>-20.906666666666659</v>
+      </c>
+      <c r="M55">
+        <v>0.13967157661485199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56">
+        <v>18.63</v>
+      </c>
+      <c r="C56">
+        <v>29.63</v>
+      </c>
+      <c r="D56">
+        <v>31.53</v>
+      </c>
+      <c r="E56">
+        <v>17.36</v>
+      </c>
+      <c r="F56">
+        <v>12.12</v>
+      </c>
+      <c r="G56">
+        <v>28.05</v>
+      </c>
+      <c r="H56">
+        <v>19.176666666666666</v>
+      </c>
+      <c r="I56">
+        <v>26.596666666666668</v>
+      </c>
+      <c r="J56">
+        <v>0.45180616762248338</v>
+      </c>
+      <c r="K56">
+        <v>-1.6991393650346374</v>
+      </c>
+      <c r="L56">
+        <v>-7.4200000000000017</v>
+      </c>
+      <c r="M56">
+        <v>0.14020613690520803</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57">
+        <v>129.44999999999999</v>
+      </c>
+      <c r="C57">
+        <v>125.64999999999999</v>
+      </c>
+      <c r="D57">
+        <v>119.28999999999999</v>
+      </c>
+      <c r="E57">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="F57">
+        <v>58.94</v>
+      </c>
+      <c r="G57">
+        <v>106.88</v>
+      </c>
+      <c r="H57">
+        <v>99.173333333333332</v>
+      </c>
+      <c r="I57">
+        <v>124.79666666666665</v>
+      </c>
+      <c r="J57">
+        <v>0.32859518784036634</v>
+      </c>
+      <c r="K57">
+        <v>-1.6808050184434842</v>
+      </c>
+      <c r="L57">
+        <v>-25.623333333333321</v>
+      </c>
+      <c r="M57">
+        <v>0.14379863832176501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58">
+        <v>71.739999999999995</v>
+      </c>
+      <c r="C58">
+        <v>63.64</v>
+      </c>
+      <c r="D58">
+        <v>35.61</v>
+      </c>
+      <c r="E58">
+        <v>54.35</v>
+      </c>
+      <c r="F58">
+        <v>25.85</v>
+      </c>
+      <c r="G58">
+        <v>42.1</v>
+      </c>
+      <c r="H58">
+        <v>40.766666666666666</v>
+      </c>
+      <c r="I58">
+        <v>56.996666666666663</v>
+      </c>
+      <c r="J58">
+        <v>0.47361797552346907</v>
+      </c>
+      <c r="K58">
+        <v>-1.6742334867022373</v>
+      </c>
+      <c r="L58">
+        <v>-16.229999999999997</v>
+      </c>
+      <c r="M58">
+        <v>0.14510783506713537</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>358</v>
+      </c>
+      <c r="B59">
+        <v>23.299999999999997</v>
+      </c>
+      <c r="C59">
+        <v>23.68</v>
+      </c>
+      <c r="D59">
+        <v>21.91</v>
+      </c>
+      <c r="E59">
+        <v>20.59</v>
+      </c>
+      <c r="F59">
+        <v>9.620000000000001</v>
+      </c>
+      <c r="G59">
+        <v>23.55</v>
+      </c>
+      <c r="H59">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="I59">
+        <v>22.963333333333331</v>
+      </c>
+      <c r="J59">
+        <v>0.34091651431524728</v>
+      </c>
+      <c r="K59">
+        <v>-1.6699209623000431</v>
+      </c>
+      <c r="L59">
+        <v>-5.0433333333333294</v>
+      </c>
+      <c r="M59">
+        <v>0.14597323344441562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60">
+        <v>29.86</v>
+      </c>
+      <c r="C60">
+        <v>31.6</v>
+      </c>
+      <c r="D60">
+        <v>31.51</v>
+      </c>
+      <c r="E60">
+        <v>34.11</v>
+      </c>
+      <c r="F60">
+        <v>14.45</v>
+      </c>
+      <c r="G60">
+        <v>24.38</v>
+      </c>
+      <c r="H60">
+        <v>24.313333333333333</v>
+      </c>
+      <c r="I60">
+        <v>30.990000000000002</v>
+      </c>
+      <c r="J60">
+        <v>0.33772349421774095</v>
+      </c>
+      <c r="K60">
+        <v>-1.6554968508337997</v>
+      </c>
+      <c r="L60">
+        <v>-6.6766666666666694</v>
+      </c>
+      <c r="M60">
+        <v>0.14890403972160152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61">
+        <v>60.02</v>
+      </c>
+      <c r="C61">
+        <v>63.029999999999994</v>
+      </c>
+      <c r="D61">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="E61">
+        <v>63.199999999999996</v>
+      </c>
+      <c r="F61">
+        <v>31.62</v>
+      </c>
+      <c r="G61">
+        <v>61.21</v>
+      </c>
+      <c r="H61">
+        <v>52.01</v>
+      </c>
+      <c r="I61">
+        <v>64.25333333333333</v>
+      </c>
+      <c r="J61">
+        <v>0.29978706008546041</v>
+      </c>
+      <c r="K61">
+        <v>-1.632685051417555</v>
+      </c>
+      <c r="L61">
+        <v>-12.243333333333332</v>
+      </c>
+      <c r="M61">
+        <v>0.15365499124612297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62">
+        <v>140.47</v>
+      </c>
+      <c r="C62">
+        <v>126.33</v>
+      </c>
+      <c r="D62">
+        <v>106.66</v>
+      </c>
+      <c r="E62">
+        <v>100.58</v>
+      </c>
+      <c r="F62">
+        <v>47.23</v>
+      </c>
+      <c r="G62">
+        <v>133.02000000000001</v>
+      </c>
+      <c r="H62">
+        <v>93.61</v>
+      </c>
+      <c r="I62">
+        <v>124.48666666666666</v>
+      </c>
+      <c r="J62">
+        <v>0.40746949628130746</v>
+      </c>
+      <c r="K62">
+        <v>-1.6255590446497425</v>
+      </c>
+      <c r="L62">
+        <v>-30.876666666666665</v>
+      </c>
+      <c r="M62">
+        <v>0.15516868024894231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>360</v>
+      </c>
+      <c r="B63">
+        <v>72.59</v>
+      </c>
+      <c r="C63">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D63">
+        <v>95.3</v>
+      </c>
+      <c r="E63">
+        <v>58.67</v>
+      </c>
+      <c r="F63">
+        <v>22.48</v>
+      </c>
+      <c r="G63">
+        <v>90.7</v>
+      </c>
+      <c r="H63">
+        <v>57.283333333333331</v>
+      </c>
+      <c r="I63">
+        <v>81.263333333333335</v>
+      </c>
+      <c r="J63">
+        <v>0.49716614122845559</v>
+      </c>
+      <c r="K63">
+        <v>-1.6195284356245234</v>
+      </c>
+      <c r="L63">
+        <v>-23.980000000000004</v>
+      </c>
+      <c r="M63">
+        <v>0.15646083039144279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64">
+        <v>36.24</v>
+      </c>
+      <c r="C64">
+        <v>40</v>
+      </c>
+      <c r="D64">
+        <v>30.56</v>
+      </c>
+      <c r="E64">
+        <v>36.29</v>
+      </c>
+      <c r="F64">
+        <v>17.5</v>
+      </c>
+      <c r="G64">
+        <v>31.639999999999997</v>
+      </c>
+      <c r="H64">
+        <v>28.476666666666667</v>
+      </c>
+      <c r="I64">
+        <v>35.6</v>
+      </c>
+      <c r="J64">
+        <v>0.31227026028286264</v>
+      </c>
+      <c r="K64">
+        <v>-1.6038457257429299</v>
+      </c>
+      <c r="L64">
+        <v>-7.1233333333333348</v>
+      </c>
+      <c r="M64">
+        <v>0.15986941033138363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65">
+        <v>24.18</v>
+      </c>
+      <c r="C65">
+        <v>20.49</v>
+      </c>
+      <c r="D65">
+        <v>22.12</v>
+      </c>
+      <c r="E65">
+        <v>21.59</v>
+      </c>
+      <c r="F65">
+        <v>9.42</v>
+      </c>
+      <c r="G65">
+        <v>21.58</v>
+      </c>
+      <c r="H65">
+        <v>17.53</v>
+      </c>
+      <c r="I65">
+        <v>22.263333333333332</v>
+      </c>
+      <c r="J65">
+        <v>0.32819494970737839</v>
+      </c>
+      <c r="K65">
+        <v>-1.5963845667651939</v>
+      </c>
+      <c r="L65">
+        <v>-4.7333333333333378</v>
+      </c>
+      <c r="M65">
+        <v>0.16151582453121532</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66">
+        <v>87.56</v>
+      </c>
+      <c r="C66">
+        <v>76.23</v>
+      </c>
+      <c r="D66">
+        <v>70.95</v>
+      </c>
+      <c r="E66">
+        <v>81.11</v>
+      </c>
+      <c r="F66">
+        <v>37.18</v>
+      </c>
+      <c r="G66">
+        <v>69.31</v>
+      </c>
+      <c r="H66">
+        <v>62.533333333333331</v>
+      </c>
+      <c r="I66">
+        <v>78.24666666666667</v>
+      </c>
+      <c r="J66">
+        <v>0.31883653938236556</v>
+      </c>
+      <c r="K66">
+        <v>-1.5860368192523442</v>
+      </c>
+      <c r="L66">
+        <v>-15.713333333333338</v>
+      </c>
+      <c r="M66">
+        <v>0.16382594264235573</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67">
+        <v>29.24</v>
+      </c>
+      <c r="C67">
+        <v>30.12</v>
+      </c>
+      <c r="D67">
+        <v>28.099999999999998</v>
+      </c>
+      <c r="E67">
+        <v>31.45</v>
+      </c>
+      <c r="F67">
+        <v>11.309999999999999</v>
+      </c>
+      <c r="G67">
+        <v>24.82</v>
+      </c>
+      <c r="H67">
+        <v>22.526666666666667</v>
+      </c>
+      <c r="I67">
+        <v>29.153333333333332</v>
+      </c>
+      <c r="J67">
+        <v>0.35802056585168707</v>
+      </c>
+      <c r="K67">
+        <v>-1.5738039238303669</v>
+      </c>
+      <c r="L67">
+        <v>-6.6266666666666652</v>
+      </c>
+      <c r="M67">
+        <v>0.16659741559528266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>55.75</v>
+      </c>
+      <c r="C68">
+        <v>59.16</v>
+      </c>
+      <c r="D68">
+        <v>58.18</v>
+      </c>
+      <c r="E68">
+        <v>29.839999999999996</v>
+      </c>
+      <c r="F68">
+        <v>12.87</v>
+      </c>
+      <c r="G68">
+        <v>72.070000000000007</v>
+      </c>
+      <c r="H68">
+        <v>38.26</v>
+      </c>
+      <c r="I68">
+        <v>57.696666666666665</v>
+      </c>
+      <c r="J68">
+        <v>0.58021840344408737</v>
+      </c>
+      <c r="K68">
+        <v>-1.5591679352895766</v>
+      </c>
+      <c r="L68">
+        <v>-19.43666666666666</v>
+      </c>
+      <c r="M68">
+        <v>0.16997173595709231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69">
+        <v>67.489999999999995</v>
+      </c>
+      <c r="C69">
+        <v>61.370000000000005</v>
+      </c>
+      <c r="D69">
+        <v>52.41</v>
+      </c>
+      <c r="E69">
+        <v>61.34</v>
+      </c>
+      <c r="F69">
+        <v>26.89</v>
+      </c>
+      <c r="G69">
+        <v>55.39</v>
+      </c>
+      <c r="H69">
+        <v>47.873333333333335</v>
+      </c>
+      <c r="I69">
+        <v>60.423333333333332</v>
+      </c>
+      <c r="J69">
+        <v>0.32973930207245861</v>
+      </c>
+      <c r="K69">
+        <v>-1.5436300816276158</v>
+      </c>
+      <c r="L69">
+        <v>-12.550000000000004</v>
+      </c>
+      <c r="M69">
+        <v>0.17362463147432031</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70">
+        <v>29.26</v>
+      </c>
+      <c r="C70">
+        <v>28.69</v>
+      </c>
+      <c r="D70">
+        <v>26.03</v>
+      </c>
+      <c r="E70">
+        <v>27.419999999999998</v>
+      </c>
+      <c r="F70">
+        <v>11.75</v>
+      </c>
+      <c r="G70">
+        <v>27.47</v>
+      </c>
+      <c r="H70">
+        <v>22.213333333333331</v>
+      </c>
+      <c r="I70">
+        <v>27.993333333333336</v>
+      </c>
+      <c r="J70">
+        <v>0.32076750581296753</v>
+      </c>
+      <c r="K70">
+        <v>-1.5348991812851795</v>
+      </c>
+      <c r="L70">
+        <v>-5.7800000000000011</v>
+      </c>
+      <c r="M70">
+        <v>0.17570958989738</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" t="s">
+        <v>361</v>
+      </c>
+      <c r="B71">
+        <v>31.05</v>
+      </c>
+      <c r="C71">
+        <v>27.21</v>
+      </c>
+      <c r="D71">
+        <v>24.78</v>
+      </c>
+      <c r="E71">
+        <v>27.31</v>
+      </c>
+      <c r="F71">
+        <v>13.26</v>
+      </c>
+      <c r="G71">
+        <v>26.51</v>
+      </c>
+      <c r="H71">
+        <v>22.36</v>
+      </c>
+      <c r="I71">
+        <v>27.68</v>
+      </c>
+      <c r="J71">
+        <v>0.29600474982188807</v>
+      </c>
+      <c r="K71">
+        <v>-1.5329714681790925</v>
+      </c>
+      <c r="L71">
+        <v>-5.3200000000000038</v>
+      </c>
+      <c r="M71">
+        <v>0.17617309716076215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" t="s">
+        <v>362</v>
+      </c>
+      <c r="B72">
+        <v>93.97</v>
+      </c>
+      <c r="C72">
+        <v>105.04</v>
+      </c>
+      <c r="D72">
+        <v>86.36</v>
+      </c>
+      <c r="E72">
+        <v>71.899999999999991</v>
+      </c>
+      <c r="F72">
+        <v>25.56</v>
+      </c>
+      <c r="G72">
+        <v>108.28</v>
+      </c>
+      <c r="H72">
+        <v>68.58</v>
+      </c>
+      <c r="I72">
+        <v>95.123333333333335</v>
+      </c>
+      <c r="J72">
+        <v>0.46621399968149646</v>
+      </c>
+      <c r="K72">
+        <v>-1.5294455817014418</v>
+      </c>
+      <c r="L72">
+        <v>-26.543333333333337</v>
+      </c>
+      <c r="M72">
+        <v>0.17702385191985234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73">
+        <v>48.5</v>
+      </c>
+      <c r="C73">
+        <v>52.64</v>
+      </c>
+      <c r="D73">
+        <v>52.26</v>
+      </c>
+      <c r="E73">
+        <v>44.2</v>
+      </c>
+      <c r="F73">
+        <v>18.66</v>
+      </c>
+      <c r="G73">
+        <v>55.45</v>
+      </c>
+      <c r="H73">
+        <v>39.436666666666667</v>
+      </c>
+      <c r="I73">
+        <v>51.133333333333333</v>
+      </c>
+      <c r="J73">
+        <v>0.36654203097694094</v>
+      </c>
+      <c r="K73">
+        <v>-1.5087136958905509</v>
+      </c>
+      <c r="L73">
+        <v>-11.696666666666665</v>
+      </c>
+      <c r="M73">
+        <v>0.18210472796066055</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74">
+        <v>20.2</v>
+      </c>
+      <c r="C74">
+        <v>20.05</v>
+      </c>
+      <c r="D74">
+        <v>16.23</v>
+      </c>
+      <c r="E74">
+        <v>15.52</v>
+      </c>
+      <c r="F74">
+        <v>7.83</v>
+      </c>
+      <c r="G74">
+        <v>20.57</v>
+      </c>
+      <c r="H74">
+        <v>14.64</v>
+      </c>
+      <c r="I74">
+        <v>18.826666666666668</v>
+      </c>
+      <c r="J74">
+        <v>0.34220163402391002</v>
+      </c>
+      <c r="K74">
+        <v>-1.5084380306089544</v>
+      </c>
+      <c r="L74">
+        <v>-4.1866666666666674</v>
+      </c>
+      <c r="M74">
+        <v>0.18217319821421174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>363</v>
+      </c>
+      <c r="B75">
+        <v>578.36</v>
+      </c>
+      <c r="C75">
+        <v>541.53</v>
+      </c>
+      <c r="D75">
+        <v>469.97</v>
+      </c>
+      <c r="E75">
+        <v>524.79999999999995</v>
+      </c>
+      <c r="F75">
+        <v>274.64999999999998</v>
+      </c>
+      <c r="G75">
+        <v>511.43</v>
+      </c>
+      <c r="H75">
+        <v>436.96</v>
+      </c>
+      <c r="I75">
+        <v>529.95333333333338</v>
+      </c>
+      <c r="J75">
+        <v>0.27778595409482421</v>
+      </c>
+      <c r="K75">
+        <v>-1.507206297699816</v>
+      </c>
+      <c r="L75">
+        <v>-92.993333333333283</v>
+      </c>
+      <c r="M75">
+        <v>0.18247943268012404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76">
+        <v>30.23</v>
+      </c>
+      <c r="C76">
+        <v>29.72</v>
+      </c>
+      <c r="D76">
+        <v>25.81</v>
+      </c>
+      <c r="E76">
+        <v>30.52</v>
+      </c>
+      <c r="F76">
+        <v>12.28</v>
+      </c>
+      <c r="G76">
+        <v>25.12</v>
+      </c>
+      <c r="H76">
+        <v>22.64</v>
+      </c>
+      <c r="I76">
+        <v>28.586666666666666</v>
+      </c>
+      <c r="J76">
+        <v>0.32371713129832269</v>
+      </c>
+      <c r="K76">
+        <v>-1.5053273885329335</v>
+      </c>
+      <c r="L76">
+        <v>-5.9466666666666654</v>
+      </c>
+      <c r="M76">
+        <v>0.18294749627564116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77">
+        <v>158.98000000000002</v>
+      </c>
+      <c r="C77">
+        <v>172</v>
+      </c>
+      <c r="D77">
+        <v>165</v>
+      </c>
+      <c r="E77">
+        <v>177.18</v>
+      </c>
+      <c r="F77">
+        <v>77.72</v>
+      </c>
+      <c r="G77">
+        <v>146.47</v>
+      </c>
+      <c r="H77">
+        <v>133.79</v>
+      </c>
+      <c r="I77">
+        <v>165.32666666666668</v>
+      </c>
+      <c r="J77">
+        <v>0.30330602253888461</v>
+      </c>
+      <c r="K77">
+        <v>-1.5045576687904179</v>
+      </c>
+      <c r="L77">
+        <v>-31.53666666666669</v>
+      </c>
+      <c r="M77">
+        <v>0.18313956863726061</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78">
+        <v>57.53</v>
+      </c>
+      <c r="C78">
+        <v>58.19</v>
+      </c>
+      <c r="D78">
+        <v>65.739999999999995</v>
+      </c>
+      <c r="E78">
+        <v>65.03</v>
+      </c>
+      <c r="F78">
+        <v>27.96</v>
+      </c>
+      <c r="G78">
+        <v>52.72</v>
+      </c>
+      <c r="H78">
+        <v>48.57</v>
+      </c>
+      <c r="I78">
+        <v>60.486666666666665</v>
+      </c>
+      <c r="J78">
+        <v>0.31080633832045024</v>
+      </c>
+      <c r="K78">
+        <v>-1.5028104413672823</v>
+      </c>
+      <c r="L78">
+        <v>-11.916666666666664</v>
+      </c>
+      <c r="M78">
+        <v>0.18357626367389529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79">
+        <v>82.35</v>
+      </c>
+      <c r="C79">
+        <v>76.239999999999995</v>
+      </c>
+      <c r="D79">
+        <v>62.98</v>
+      </c>
+      <c r="E79">
+        <v>84.37</v>
+      </c>
+      <c r="F79">
+        <v>36.1</v>
+      </c>
+      <c r="G79">
+        <v>52.39</v>
+      </c>
+      <c r="H79">
+        <v>57.620000000000005</v>
+      </c>
+      <c r="I79">
+        <v>73.856666666666655</v>
+      </c>
+      <c r="J79">
+        <v>0.35273783908646905</v>
+      </c>
+      <c r="K79">
+        <v>-1.5020731591013801</v>
+      </c>
+      <c r="L79">
+        <v>-16.236666666666657</v>
+      </c>
+      <c r="M79">
+        <v>0.18376082887817688</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80">
+        <v>93.81</v>
+      </c>
+      <c r="C80">
+        <v>99.11</v>
+      </c>
+      <c r="D80">
+        <v>96.039999999999992</v>
+      </c>
+      <c r="E80">
+        <v>88.76</v>
+      </c>
+      <c r="F80">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="G80">
+        <v>100.71</v>
+      </c>
+      <c r="H80">
+        <v>74.936666666666667</v>
+      </c>
+      <c r="I80">
+        <v>96.32</v>
+      </c>
+      <c r="J80">
+        <v>0.35793964880177587</v>
+      </c>
+      <c r="K80">
+        <v>-1.5003822745717932</v>
+      </c>
+      <c r="L80">
+        <v>-21.38333333333334</v>
+      </c>
+      <c r="M80">
+        <v>0.18418476603756193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>355.27</v>
+      </c>
+      <c r="C81">
+        <v>318.58999999999997</v>
+      </c>
+      <c r="D81">
+        <v>335.56</v>
+      </c>
+      <c r="E81">
+        <v>38.19</v>
+      </c>
+      <c r="F81">
+        <v>311.77999999999997</v>
+      </c>
+      <c r="G81">
+        <v>348.06</v>
+      </c>
+      <c r="H81">
+        <v>232.67666666666665</v>
+      </c>
+      <c r="I81">
+        <v>336.4733333333333</v>
+      </c>
+      <c r="J81">
+        <v>0.53025982316177966</v>
+      </c>
+      <c r="K81">
+        <v>-1.492104791040759</v>
+      </c>
+      <c r="L81">
+        <v>-103.79666666666665</v>
+      </c>
+      <c r="M81">
+        <v>0.18627329840984772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82">
+        <v>21.53</v>
+      </c>
+      <c r="C82">
+        <v>19.37</v>
+      </c>
+      <c r="D82">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="E82">
+        <v>21.91</v>
+      </c>
+      <c r="F82">
+        <v>8.19</v>
+      </c>
+      <c r="G82">
+        <v>13.58</v>
+      </c>
+      <c r="H82">
+        <v>14.56</v>
+      </c>
+      <c r="I82">
+        <v>19.053333333333335</v>
+      </c>
+      <c r="J82">
+        <v>0.36600000597028881</v>
+      </c>
+      <c r="K82">
+        <v>-1.4868275091114036</v>
+      </c>
+      <c r="L82">
+        <v>-4.4933333333333341</v>
+      </c>
+      <c r="M82">
+        <v>0.18761634238812067</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83">
+        <v>39.75</v>
+      </c>
+      <c r="C83">
+        <v>45.17</v>
+      </c>
+      <c r="D83">
+        <v>43.84</v>
+      </c>
+      <c r="E83">
+        <v>43.88</v>
+      </c>
+      <c r="F83">
+        <v>18.29</v>
+      </c>
+      <c r="G83">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="H83">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="I83">
+        <v>42.92</v>
+      </c>
+      <c r="J83">
+        <v>0.31520987084665553</v>
+      </c>
+      <c r="K83">
+        <v>-1.4830522263746226</v>
+      </c>
+      <c r="L83">
+        <v>-8.6200000000000045</v>
+      </c>
+      <c r="M83">
+        <v>0.18858266283876979</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" t="s">
+        <v>364</v>
+      </c>
+      <c r="B84">
+        <v>20.65</v>
+      </c>
+      <c r="C84">
+        <v>19.22</v>
+      </c>
+      <c r="D84">
+        <v>17.53</v>
+      </c>
+      <c r="E84">
+        <v>21.31</v>
+      </c>
+      <c r="F84">
+        <v>10.379999999999999</v>
+      </c>
+      <c r="G84">
+        <v>15.379999999999999</v>
+      </c>
+      <c r="H84">
+        <v>15.69</v>
+      </c>
+      <c r="I84">
+        <v>19.133333333333333</v>
+      </c>
+      <c r="J84">
+        <v>0.2706020941286873</v>
+      </c>
+      <c r="K84">
+        <v>-1.4822887497140014</v>
+      </c>
+      <c r="L84">
+        <v>-3.4433333333333334</v>
+      </c>
+      <c r="M84">
+        <v>0.18877864443720369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85">
+        <v>59.03</v>
+      </c>
+      <c r="C85">
+        <v>59.07</v>
+      </c>
+      <c r="D85">
+        <v>51.92</v>
+      </c>
+      <c r="E85">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="F85">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="G85">
+        <v>69.72</v>
+      </c>
+      <c r="H85">
+        <v>40.176666666666662</v>
+      </c>
+      <c r="I85">
+        <v>56.673333333333332</v>
+      </c>
+      <c r="J85">
+        <v>0.48607736228737064</v>
+      </c>
+      <c r="K85">
+        <v>-1.473618099659274</v>
+      </c>
+      <c r="L85">
+        <v>-16.496666666666663</v>
+      </c>
+      <c r="M85">
+        <v>0.19101769715119774</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86">
+        <v>22.71</v>
+      </c>
+      <c r="C86">
+        <v>22.34</v>
+      </c>
+      <c r="D86">
+        <v>22.02</v>
+      </c>
+      <c r="E86">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="F86">
+        <v>9.36</v>
+      </c>
+      <c r="G86">
+        <v>23.78</v>
+      </c>
+      <c r="H86">
+        <v>17.823333333333334</v>
+      </c>
+      <c r="I86">
+        <v>22.356666666666666</v>
+      </c>
+      <c r="J86">
+        <v>0.31131226491230812</v>
+      </c>
+      <c r="K86">
+        <v>-1.4731889781165139</v>
+      </c>
+      <c r="L86">
+        <v>-4.5333333333333314</v>
+      </c>
+      <c r="M86">
+        <v>0.19112914902241776</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87">
+        <v>34.89</v>
+      </c>
+      <c r="C87">
+        <v>31.28</v>
+      </c>
+      <c r="D87">
+        <v>30.48</v>
+      </c>
+      <c r="E87">
+        <v>26.73</v>
+      </c>
+      <c r="F87">
+        <v>11.96</v>
+      </c>
+      <c r="G87">
+        <v>35.92</v>
+      </c>
+      <c r="H87">
+        <v>24.87</v>
+      </c>
+      <c r="I87">
+        <v>32.216666666666669</v>
+      </c>
+      <c r="J87">
+        <v>0.36062725032052345</v>
+      </c>
+      <c r="K87">
+        <v>-1.4613896994556492</v>
+      </c>
+      <c r="L87">
+        <v>-7.3466666666666676</v>
+      </c>
+      <c r="M87">
+        <v>0.19421740982449984</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" t="s">
+        <v>232</v>
+      </c>
+      <c r="B88">
+        <v>25.73</v>
+      </c>
+      <c r="C88">
+        <v>24.12</v>
+      </c>
+      <c r="D88">
+        <v>22.55</v>
+      </c>
+      <c r="E88">
+        <v>24.86</v>
+      </c>
+      <c r="F88">
+        <v>10.83</v>
+      </c>
+      <c r="G88">
+        <v>22.85</v>
+      </c>
+      <c r="H88">
+        <v>19.513333333333335</v>
+      </c>
+      <c r="I88">
+        <v>24.133333333333333</v>
+      </c>
+      <c r="J88">
+        <v>0.29304007982248148</v>
+      </c>
+      <c r="K88">
+        <v>-1.4598964073563119</v>
+      </c>
+      <c r="L88">
+        <v>-4.620000000000001</v>
+      </c>
+      <c r="M88">
+        <v>0.19461153372899187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89">
+        <v>52.71</v>
+      </c>
+      <c r="C89">
+        <v>55.5</v>
+      </c>
+      <c r="D89">
+        <v>51.42</v>
+      </c>
+      <c r="E89">
+        <v>48.9</v>
+      </c>
+      <c r="F89">
+        <v>22.33</v>
+      </c>
+      <c r="G89">
+        <v>56.32</v>
+      </c>
+      <c r="H89">
+        <v>42.516666666666666</v>
+      </c>
+      <c r="I89">
+        <v>53.21</v>
+      </c>
+      <c r="J89">
+        <v>0.31699095510670805</v>
+      </c>
+      <c r="K89">
+        <v>-1.4557640692950615</v>
+      </c>
+      <c r="L89">
+        <v>-10.693333333333335</v>
+      </c>
+      <c r="M89">
+        <v>0.19570604215345366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90">
+        <v>59.94</v>
+      </c>
+      <c r="C90">
+        <v>56.87</v>
+      </c>
+      <c r="D90">
+        <v>51.43</v>
+      </c>
+      <c r="E90">
+        <v>55.07</v>
+      </c>
+      <c r="F90">
+        <v>25.09</v>
+      </c>
+      <c r="G90">
+        <v>56</v>
+      </c>
+      <c r="H90">
+        <v>45.38666666666667</v>
+      </c>
+      <c r="I90">
+        <v>56.08</v>
+      </c>
+      <c r="J90">
+        <v>0.2992751565770293</v>
+      </c>
+      <c r="K90">
+        <v>-1.4468178106661116</v>
+      </c>
+      <c r="L90">
+        <v>-10.693333333333335</v>
+      </c>
+      <c r="M90">
+        <v>0.19809511302501001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91">
+        <v>30.130000000000003</v>
+      </c>
+      <c r="C91">
+        <v>30.049999999999997</v>
+      </c>
+      <c r="D91">
+        <v>29.15</v>
+      </c>
+      <c r="E91">
+        <v>27.66</v>
+      </c>
+      <c r="F91">
+        <v>10.84</v>
+      </c>
+      <c r="G91">
+        <v>31.41</v>
+      </c>
+      <c r="H91">
+        <v>23.303333333333335</v>
+      </c>
+      <c r="I91">
+        <v>29.776666666666667</v>
+      </c>
+      <c r="J91">
+        <v>0.34068278511272876</v>
+      </c>
+      <c r="K91">
+        <v>-1.4455986672272125</v>
+      </c>
+      <c r="L91">
+        <v>-6.4733333333333327</v>
+      </c>
+      <c r="M91">
+        <v>0.19842275896667902</v>
       </c>
     </row>
   </sheetData>
